--- a/Docs/PULSAR_params.xlsx
+++ b/Docs/PULSAR_params.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>Наименование</t>
   </si>
@@ -66,7 +66,34 @@
     <t>Чтение значений</t>
   </si>
   <si>
-    <t>Пульсар тепло v3 параметры драйвера</t>
+    <t>ПУЛЬСАР параметры драйверов</t>
+  </si>
+  <si>
+    <t>Драйвер:</t>
+  </si>
+  <si>
+    <t>Протокол:</t>
+  </si>
+  <si>
+    <t>Теплосчетчик компактный v3</t>
+  </si>
+  <si>
+    <t>pulsar_teplo</t>
+  </si>
+  <si>
+    <t>Носитель:</t>
+  </si>
+  <si>
+    <t>Тепло</t>
+  </si>
+  <si>
+    <t>Вода</t>
+  </si>
+  <si>
+    <t>ПулсарМ, Многоструйный с цифровым выходом</t>
+  </si>
+  <si>
+    <t>pulsar_hvs/pulsar_gvs/PulsarM</t>
   </si>
 </sst>
 </file>
@@ -161,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -184,12 +211,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -493,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,8 +531,8 @@
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" customWidth="1"/>
   </cols>
@@ -521,7 +549,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="10">
-        <v>42957</v>
+        <v>42958</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -530,104 +558,77 @@
       </c>
       <c r="F2" s="10">
         <f ca="1">TODAY()</f>
-        <v>42957</v>
+        <v>42958</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="8">
-        <v>7</v>
-      </c>
-      <c r="D6" s="8">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="8">
-        <v>8</v>
-      </c>
-      <c r="D7" s="8">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="15">
-        <v>3</v>
-      </c>
-      <c r="D8" s="17">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="15">
-        <v>4</v>
-      </c>
-      <c r="D9" s="17">
+        <v>9</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="8">
+        <v>7</v>
+      </c>
+      <c r="D9" s="8">
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -636,68 +637,166 @@
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="8">
+        <v>8</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="3"/>
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="15">
+        <v>3</v>
+      </c>
+      <c r="D11" s="16">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="3"/>
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="15">
+        <v>4</v>
+      </c>
+      <c r="D12" s="16">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="K12" s="3"/>
     </row>
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="3"/>
+    </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="11:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="11:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="11:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="11:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="11:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="11:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="3"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="11:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="11:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="11:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="11:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="11:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="11:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="11:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K29" s="3"/>
     </row>
   </sheetData>

--- a/Docs/PULSAR_params.xlsx
+++ b/Docs/PULSAR_params.xlsx
@@ -521,7 +521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
